--- a/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteC.xlsx
+++ b/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteC.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\git\automationframework\AutomationFrameworkWDTestNGJAVA\src\main\resources\unicodeTech\testInformation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="14355" windowHeight="7245"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Execution</t>
   </si>
@@ -36,7 +41,10 @@
     <t>ExtractCategories</t>
   </si>
   <si>
-    <t>y</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Hello there</t>
   </si>
 </sst>
 </file>
@@ -115,6 +123,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -162,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +420,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +445,9 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
